--- a/files/Plots/Data/Performance-Energy-Oracle.xlsx
+++ b/files/Plots/Data/Performance-Energy-Oracle.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="apache-ferq" sheetId="6" r:id="rId1"/>
     <sheet name="h2-x264" sheetId="7" r:id="rId2"/>
-    <sheet name="OffChip-Chart" sheetId="8" r:id="rId3"/>
-    <sheet name="Data" sheetId="1" r:id="rId4"/>
-    <sheet name="PPT-Scratch" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="PPT-Scratch" sheetId="9" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -422,8 +421,8 @@
         </c:dLbls>
         <c:gapWidth val="35"/>
         <c:overlap val="100"/>
-        <c:axId val="79179264"/>
-        <c:axId val="88097344"/>
+        <c:axId val="81190400"/>
+        <c:axId val="122176064"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -554,11 +553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57899776"/>
-        <c:axId val="88097920"/>
+        <c:axId val="58882240"/>
+        <c:axId val="122176640"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="79179264"/>
+        <c:axId val="81190400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88097344"/>
+        <c:crossAx val="122176064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -592,7 +591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88097344"/>
+        <c:axId val="122176064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -647,13 +646,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79179264"/>
+        <c:crossAx val="81190400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88097920"/>
+        <c:axId val="122176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -691,13 +690,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57899776"/>
+        <c:crossAx val="58882240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57899776"/>
+        <c:axId val="58882240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88097920"/>
+        <c:crossAx val="122176640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -920,8 +919,8 @@
         </c:dLbls>
         <c:gapWidth val="35"/>
         <c:overlap val="100"/>
-        <c:axId val="55915008"/>
-        <c:axId val="88100224"/>
+        <c:axId val="123719680"/>
+        <c:axId val="122178368"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1050,11 +1049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88101376"/>
-        <c:axId val="88100800"/>
+        <c:axId val="122179520"/>
+        <c:axId val="122178944"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="55915008"/>
+        <c:axId val="123719680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88100224"/>
+        <c:crossAx val="122178368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1088,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88100224"/>
+        <c:axId val="122178368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1143,13 +1142,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55915008"/>
+        <c:crossAx val="123719680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88100800"/>
+        <c:axId val="122178944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1187,13 +1186,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88101376"/>
+        <c:crossAx val="122179520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88101376"/>
+        <c:axId val="122179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88100800"/>
+        <c:crossAx val="122178944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1254,364 +1253,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14864747232125802"/>
-          <c:y val="0.11422254389137886"/>
-          <c:w val="0.85135252767874203"/>
-          <c:h val="0.74683273560245589"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Off-Chip Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$E$28:$E$49</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>apache</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>art</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cactus</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>can.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>eclipse</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>face.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>firefox</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>fluid.</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>freq.</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>h2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>jbb</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>lbm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>milc</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>omnet.</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>soplex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>tpc-c.</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>trade.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>twolf</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$F$28:$F$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>31.444699567435258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.741450630294921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.559045133906832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6327356297814708</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.809811393620805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1058530510585216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7181715188855513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.889812035573257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.699290930775895</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.70406313319825</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.000101533150573</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.819686662941049</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52.997354821025446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36.351870568314624</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54.944739832306176</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.771697235873521</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.739736946990831</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55.853329469959078</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39.153152611045918</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6178563231581382</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>92.961346223369716</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.574861376197406</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="35"/>
-        <c:axId val="55916032"/>
-        <c:axId val="56255616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="55916032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56255616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56255616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="0"/>
-                  <a:t>% Reduction</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55916032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.52030846663337693"/>
-          <c:y val="0.16545850187353936"/>
-          <c:w val="0.27424859464046192"/>
-          <c:h val="5.6346200840391408E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:alpha val="30000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1795,11 +1436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="55917568"/>
-        <c:axId val="56257344"/>
+        <c:axId val="55574528"/>
+        <c:axId val="122181248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55917568"/>
+        <c:axId val="55574528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56257344"/>
+        <c:crossAx val="122181248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1836,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56257344"/>
+        <c:axId val="122181248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1853,6 +1494,31 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="##0\%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1877,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55917568"/>
+        <c:crossAx val="55574528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1907,7 +1573,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2104,11 +1770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="56643584"/>
-        <c:axId val="56259072"/>
+        <c:axId val="55575040"/>
+        <c:axId val="73942720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56643584"/>
+        <c:axId val="55575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +1803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56259072"/>
+        <c:crossAx val="73942720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2145,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56259072"/>
+        <c:axId val="73942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -2162,6 +1828,31 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="##0\%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2186,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56643584"/>
+        <c:crossAx val="55575040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2217,6 +1908,363 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12089854461411226"/>
+          <c:y val="0.11422254389137886"/>
+          <c:w val="0.87194043440191116"/>
+          <c:h val="0.64561720324046101"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Off-Chip Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$E$28:$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>apache</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>art</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>can.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eclipse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>face.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>firefox</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fluid.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>freq.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>h2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jbb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>milc</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>omnet.</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>tpc-c.</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>trade.</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>twolf</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$28:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>31.444699567435258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.741450630294921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.559045133906832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6327356297814708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.809811393620805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1058530510585216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7181715188855513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.889812035573257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.699290930775895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.70406313319825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.000101533150573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.819686662941049</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.997354821025446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.351870568314624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.944739832306176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.771697235873521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.739736946990831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.853329469959078</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.153152611045918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6178563231581382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.961346223369716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.574861376197406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="35"/>
+        <c:axId val="140709376"/>
+        <c:axId val="126670464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="140709376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126670464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126670464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="0"/>
+                  <a:t>% Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="##0\%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140709376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -2236,18 +2284,6 @@
     <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
@@ -2561,33 +2597,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673353" cy="6297706"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2650,19 +2659,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11814</cdr:x>
-      <cdr:y>0.02101</cdr:y>
+      <cdr:x>0.15212</cdr:x>
+      <cdr:y>0.02371</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.1559</cdr:x>
-      <cdr:y>0.19501</cdr:y>
+      <cdr:x>0.18988</cdr:x>
+      <cdr:y>0.19771</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2671,8 +2710,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1680517" y="134936"/>
-          <a:ext cx="537146" cy="1117311"/>
+          <a:off x="2170597" y="152232"/>
+          <a:ext cx="538782" cy="1117330"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2985,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
